--- a/protocol/protocol.xlsx
+++ b/protocol/protocol.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Место</t>
   </si>
@@ -89,13 +89,17 @@
   </si>
   <si>
     <t>д. Ивановка, Рязанская область.                                                                                                                               25 - 28 июня 2022 года.</t>
+  </si>
+  <si>
+    <t>ФЕДЕРАЦИЯ
+ МОТОЦИКЛЕТНОГО СПОРТА РОССИИ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +305,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -713,7 +725,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -772,37 +784,17 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -825,6 +817,32 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -868,90 +886,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>116415</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2995083</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>941917</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="WordArt 4"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1" noTextEdit="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1345140" y="84667"/>
-          <a:ext cx="8507943" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" fromWordArt="1">
-          <a:prstTxWarp prst="textPlain">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 50000"/>
-            </a:avLst>
-          </a:prstTxWarp>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0"/>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="3600" kern="10" spc="0">
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:round/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial Black"/>
-            </a:rPr>
-            <a:t>ФЕДЕРАЦИЯ </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0"/>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="3600" kern="10" spc="0">
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:round/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial Black"/>
-            </a:rPr>
-            <a:t>МОТОЦИКЛЕТНОГО СПОРТА РОССИИ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1427,8 +1361,8 @@
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,23 +1383,30 @@
     <col min="14" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+    </row>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
@@ -1483,21 +1424,21 @@
       <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
@@ -1515,21 +1456,21 @@
       <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
@@ -1547,21 +1488,21 @@
       <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -1579,51 +1520,51 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35" t="s">
+      <c r="J10" s="28"/>
+      <c r="K10" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="36" t="s">
+      <c r="L10" s="28"/>
+      <c r="M10" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="32"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1636,7 +1577,7 @@
       <c r="L11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="37"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
@@ -1687,37 +1628,37 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:13" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13" s="17" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
@@ -1734,49 +1675,41 @@
       <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:13" s="17" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:13" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A14:L14"/>
+  <mergeCells count="20">
+    <mergeCell ref="D1:G1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A6:M6"/>
@@ -1787,6 +1720,15 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A14:L14"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="70" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
